--- a/Résultats/Mesures.xlsx
+++ b/Résultats/Mesures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yanis\Yanis\2024-2025-4GP-Glubulax-TTRollanDD-main\Résultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B0145-8232-4889-ABFC-6D151AE68E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28646155-2380-4744-B8F5-84D230D6F0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="1" activeTab="6" xr2:uid="{F206075C-FF8E-4015-ADB1-16F53726C731}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{F206075C-FF8E-4015-ADB1-16F53726C731}"/>
   </bookViews>
   <sheets>
     <sheet name="HB-2" sheetId="9" r:id="rId1"/>
@@ -42,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="24">
   <si>
     <t>Grammage papier</t>
   </si>
@@ -103,6 +125,18 @@
   </si>
   <si>
     <t>Flexion</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>flexion</t>
+  </si>
+  <si>
+    <t>compression</t>
   </si>
 </sst>
 </file>
@@ -177,7 +211,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -421,7 +455,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -430,40 +465,6 @@
                   <c:y val="4.6386701662292217E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent2"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 160,74x - 0,066</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -782,7 +783,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -911,7 +912,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -920,40 +922,6 @@
                   <c:y val="0.31810185185185186"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 40,949x - 0,0262</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1482,7 +1450,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1821,56 +1789,21 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.2246377952755905"/>
-                  <c:y val="-8.2405949256342953E-2"/>
+                  <c:x val="2.3088801399825023E-2"/>
+                  <c:y val="-9.5710766529610414E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent3"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 170,77x - 0,0234</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
+                  <a:noFill/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -2289,7 +2222,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2523,13 +2456,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5986220472440945E-2"/>
-                  <c:y val="0.3272354948805461"/>
+                  <c:x val="-0.20041666666666666"/>
+                  <c:y val="0.27262798634812285"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2955,7 +2889,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3085,55 +3019,34 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14686001749781277"/>
-                  <c:y val="-1.9606299212598426E-2"/>
+                  <c:x val="-0.28792497812773404"/>
+                  <c:y val="4.1250000000000002E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 47,285x - 0,0245</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
+                  <a:noFill/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -3371,6 +3284,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3447,7 +3364,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3576,49 +3493,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15709733158355205"/>
-                  <c:y val="0.31137795275590552"/>
+                  <c:x val="-0.26430555555555557"/>
+                  <c:y val="0.29125000000000001"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 48,114x + 0,0218</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3937,7 +3821,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4055,6 +3939,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12674384879972195"/>
+                  <c:y val="-0.42507627455658953"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 46,032x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9974</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>HB!$B$4:$B$10</c:f>
@@ -4160,6 +4144,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29721569050444036"/>
+                  <c:y val="-0.37681507993319019"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 101,33x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9558</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'2B'!$B$4:$B$10</c:f>
@@ -4265,6 +4349,114 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46464339217871736"/>
+                  <c:y val="-0.39065266841644797"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 87,682x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9919</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'3B'!$B$4:$B$10</c:f>
@@ -4370,6 +4562,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.63511523388343583"/>
+                  <c:y val="-0.15336578382247673"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 321,69x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9301</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>B!$B$4:$B$10</c:f>
@@ -4658,7 +4950,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4776,6 +5068,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9671280076774547E-2"/>
+                  <c:y val="-0.43298159586339136"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 28,41x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,864</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'6B'!$B$4:$B$10</c:f>
@@ -4881,6 +5273,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24423809358631934"/>
+                  <c:y val="-0.33112420827636069"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 69,733x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9646</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>HB!$B$4:$B$10</c:f>
@@ -4986,6 +5478,114 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41163897464358806"/>
+                  <c:y val="-0.30138148899052292"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 79,786x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9229</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'3B'!$B$4:$B$10</c:f>
@@ -5091,6 +5691,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.58197671326326494"/>
+                  <c:y val="-0.14484888490735065"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 144,25x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9182</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'2B'!$B$4:$B$10</c:f>
@@ -5379,7 +6079,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5497,6 +6197,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.44966526444468413"/>
+                  <c:y val="0.39927272727272733"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 77,12x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9966</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>HB!$B$23:$B$29</c:f>
@@ -5602,6 +6402,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28203957382039574"/>
+                  <c:y val="0.41139393939393937"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 83,615x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,992</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'2B'!$B$23:$B$29</c:f>
@@ -5707,6 +6607,114 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11765601217656012"/>
+                  <c:y val="0.39523232323232332"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 95,945x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,996</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'3B'!$B$23:$B$29</c:f>
@@ -5812,6 +6820,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.62602739726027401"/>
+                  <c:y val="0.40331313131313129"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 64,354x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9705</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>B!$B$23:$B$29</c:f>
@@ -6100,7 +7208,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6218,6 +7326,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.56891347832622241"/>
+                  <c:y val="0.39049900199600807"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 48,63x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9772</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'6B'!$B$23:$B$29</c:f>
@@ -6323,6 +7531,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40719530102790014"/>
+                  <c:y val="0.41045908183632734"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 66,642x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9974</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>HB!$B$23:$B$29</c:f>
@@ -6428,6 +7736,114 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25154185022026432"/>
+                  <c:y val="0.39848303393213574"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 98,112x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9939</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'3B'!$B$23:$B$29</c:f>
@@ -6533,6 +7949,106 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10176211453744494"/>
+                  <c:y val="0.37852295409181635"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 104,98x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,993</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'2B'!$B$23:$B$29</c:f>
@@ -6821,7 +8337,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6861,7 +8377,31 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>R 𝑓𝑜𝑛𝑐𝑡𝑖𝑜𝑛 𝑑𝑒 𝜀, val poto 12500, compression</a:t>
+              <a:t>𝑅 (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) 𝑓𝑜𝑛𝑐𝑡𝑖𝑜𝑛 𝑑𝑒 𝜀, val poto 12500, compression</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7542,7 +9082,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7681,7 +9221,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -7690,40 +9231,6 @@
                   <c:y val="0.3778678186060076"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent2"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 38,088x + 0,0225</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8170,7 +9677,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8210,7 +9717,25 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>𝑅  𝑓𝑜𝑛𝑐𝑡𝑖𝑜𝑛 𝑑𝑒 𝜀, val poto 12500, flexion</a:t>
+              <a:t>𝑅 (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) 𝑓𝑜𝑛𝑐𝑡𝑖𝑜𝑛 𝑑𝑒 𝜀, val poto 12500, flexion</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8899,7 +10424,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8939,7 +10464,31 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>𝑅  𝑓𝑜𝑛𝑐𝑡𝑖𝑜𝑛 𝑑𝑒 𝜀, val poto 25000, compression</a:t>
+              <a:t>𝑅 (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) 𝑓𝑜𝑛𝑐𝑡𝑖𝑜𝑛 𝑑𝑒 𝜀, val poto 25000, compression</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9620,7 +11169,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9660,7 +11209,31 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>𝑅  𝑓𝑜𝑛𝑐𝑡𝑖𝑜𝑛 𝑑𝑒 𝜀, val poto 25000, flexion</a:t>
+              <a:t>𝑅 (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) 𝑓𝑜𝑛𝑐𝑡𝑖𝑜𝑛 𝑑𝑒 𝜀, val poto 25000, flexion</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10341,7 +11914,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10496,6 +12069,68 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46127230971128608"/>
+                  <c:y val="-9.2520049577136193E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 46,032x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9974</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>HB!$B$4:$B$10</c:f>
@@ -11080,7 +12715,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11316,6 +12951,68 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17940266841644795"/>
+                  <c:y val="0.22180555555555556"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 77,12x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9966</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>HB!$B$23:$B$29</c:f>
@@ -11819,7 +13516,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12053,49 +13750,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.34130446194225722"/>
-                  <c:y val="-0.10174358413531642"/>
+                  <c:x val="-0.44635564304461944"/>
+                  <c:y val="-0.15934750477009488"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent2"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 88,447x - 0,0504</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -12729,7 +14393,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12963,49 +14627,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1541776027996498E-2"/>
-                  <c:y val="0.30303727392437718"/>
+                  <c:x val="-0.16430555555555557"/>
+                  <c:y val="0.33292377701934017"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent2"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 90,719x + 0,0266</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -13639,7 +15270,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13768,49 +15399,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.2761933508311461"/>
-                  <c:y val="-4.2325386410032077E-2"/>
+                  <c:x val="-0.41857786526684165"/>
+                  <c:y val="-1.598461650627005E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="0070C0"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 137,8x - 0,0423</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:srgbClr val="0070C0"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -14656,7 +16254,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14785,7 +16383,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -14794,40 +16393,6 @@
                   <c:y val="0.36069444444444443"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 77,424x - 0,0046</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -15671,7 +17236,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15800,63 +17365,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.33852668416447945"/>
-                  <c:y val="-0.10256598133566637"/>
+                  <c:x val="-0.43138779527559057"/>
+                  <c:y val="-0.17090988626421696"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="0070C0"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 69,333x - 0,0248</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:srgbClr val="0070C0"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -16312,7 +17830,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="4"/>
+        <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -27589,16 +29107,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>328612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27668,16 +29186,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27747,16 +29265,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27826,16 +29344,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27941,16 +29459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27984,16 +29502,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28020,16 +29538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28136,15 +29654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28365,7 +29883,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -28663,11 +30181,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD383FD-D1F0-4E20-88F4-0C685F52199E}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -29666,11 +31184,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F25F61-30F0-475C-A640-4DD573C84658}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
@@ -30726,11 +32244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566B3873-1CE6-4CC8-A052-DB7CA5A45ECF}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -31734,11 +33252,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163B9E69-1E0D-476F-8358-F6A693194EA0}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -32788,11 +34306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20F5D02-E140-4534-8430-35BDAAAEFE3A}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
@@ -33817,11 +35335,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487A145F-2B05-4E48-BE02-B31363BDFAAF}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
@@ -34831,19 +36349,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED099EB-85B1-444F-9C60-641DC18E6BFB}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -34881,7 +36400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
         <v>12</v>
       </c>
@@ -34889,7 +36408,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -34900,7 +36419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -34933,7 +36452,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -34967,7 +36486,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.04</v>
       </c>
@@ -35001,7 +36520,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -35034,8 +36553,11 @@
         <v>17</v>
       </c>
       <c r="M7" s="1"/>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.03</v>
       </c>
@@ -35068,8 +36590,14 @@
         <v>17</v>
       </c>
       <c r="M8" s="1"/>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -35102,8 +36630,15 @@
         <v>17</v>
       </c>
       <c r="M9" s="1"/>
+      <c r="O9" cm="1">
+        <f t="array" ref="O9:P13">LINEST(D14:D20,B4:B10,0,1)</f>
+        <v>57.164985296999696</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.02</v>
       </c>
@@ -35136,21 +36671,45 @@
         <v>17</v>
       </c>
       <c r="M10" s="1"/>
+      <c r="O10">
+        <v>2.7992423933789854</v>
+      </c>
+      <c r="P10" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
+      <c r="O11">
+        <v>0.98581699124896072</v>
+      </c>
+      <c r="P11">
+        <v>2.2480380844109481E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
+      <c r="O12">
+        <v>417.0414085840797</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1"/>
+      <c r="O13">
+        <v>0.21075918360128032</v>
+      </c>
+      <c r="P13">
+        <v>3.0322051373772273E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
         <f>(D4-$D$4)/$D$4</f>
@@ -35178,7 +36737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
         <f t="shared" ref="D15:D20" si="1">(D5-$D$4)/$D$4</f>
@@ -35206,7 +36765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
         <f>(D6-$D$4)/$D$4</f>
@@ -35234,7 +36793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
         <f>(D7-$D$4)/$D$4</f>
@@ -35262,7 +36821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
@@ -35290,7 +36849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
@@ -35318,7 +36877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>0.25116279069767444</v>
@@ -35345,12 +36904,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -35361,7 +36920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -35395,7 +36954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-4.4999999999999998E-2</v>
       </c>
@@ -35428,8 +36987,11 @@
       <c r="K25" t="s">
         <v>17</v>
       </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.04</v>
       </c>
@@ -35462,8 +37024,14 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3.5000000000000003E-2</v>
       </c>
@@ -35496,8 +37064,15 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
+      <c r="O27" cm="1">
+        <f t="array" ref="O27:P31">LINEST(D34:D40,B24:B30,0,1)</f>
+        <v>41.727316408300545</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.03</v>
       </c>
@@ -35530,8 +37105,14 @@
       <c r="K28" t="s">
         <v>17</v>
       </c>
+      <c r="O28">
+        <v>3.5495060365344826</v>
+      </c>
+      <c r="P28" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.5000000000000001E-2</v>
       </c>
@@ -35564,8 +37145,14 @@
       <c r="K29" t="s">
         <v>17</v>
       </c>
+      <c r="O29">
+        <v>0.95839085061629992</v>
+      </c>
+      <c r="P29">
+        <v>2.8505658423328084E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.02</v>
       </c>
@@ -35597,6 +37184,20 @@
       </c>
       <c r="K30" t="s">
         <v>17</v>
+      </c>
+      <c r="O30">
+        <v>138.19905450771932</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0.11229675980769335</v>
+      </c>
+      <c r="P31">
+        <v>4.8754353728847327E-3</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
@@ -35804,11 +37405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86B64D7-CE9A-4E5C-BFF5-DADA50F2FBA2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
